--- a/DayNine/TestScript/Day9.xlsx
+++ b/DayNine/TestScript/Day9.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1708364035" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1708364035" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1708364035" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1708364035"/>
+      <pm:revision xmlns:pm="smNativeData" day="1708421603" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1708421603" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1708421603" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1708421603"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Test Id</t>
   </si>
@@ -37,16 +37,37 @@
     <t>Conditions</t>
   </si>
   <si>
-    <t>Demonstrate the fluent wait</t>
-  </si>
-  <si>
-    <t>Use Fluent Wait to wait for an element to be visible</t>
-  </si>
-  <si>
-    <t>Use Fluent wait</t>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Login to the web app</t>
+  </si>
+  <si>
+    <t>Fetch url from Properties file</t>
   </si>
   <si>
     <t>Use POM</t>
+  </si>
+  <si>
+    <t>Fetch credentials from the Login Page</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>Add the product to cart</t>
+  </si>
+  <si>
+    <t>Fetch product from Properties file</t>
+  </si>
+  <si>
+    <t>Remove from Cart</t>
+  </si>
+  <si>
+    <t>Remove the selected product from cart</t>
+  </si>
+  <si>
+    <t>Use FluentWait</t>
   </si>
 </sst>
 </file>
@@ -71,7 +92,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1708364035" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708421603" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -93,7 +114,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1708364035" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1708421603" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -115,7 +136,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1708364035"/>
+          <pm:border xmlns:pm="smNativeData" id="1708421603"/>
         </ext>
       </extLst>
     </border>
@@ -134,7 +155,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1708364035"/>
+          <pm:border xmlns:pm="smNativeData" id="1708421603"/>
         </ext>
       </extLst>
     </border>
@@ -154,7 +175,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1708364035" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1708421603" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -421,7 +442,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -466,19 +487,50 @@
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="4:4">
-      <c r="D5"/>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
-      <c r="D8"/>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9"/>
@@ -496,7 +548,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1708364035" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1708421603" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -505,16 +557,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1708364035" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1708364035" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1708364035" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1708364035" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1708421603" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1708421603" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1708421603" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1708421603" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1708364035" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1708421603" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
